--- a/data/scenario_options.xlsx
+++ b/data/scenario_options.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zwischenspeichern\eigenverbrauchsanteil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,9 @@
     <t>weatherfile</t>
   </si>
   <si>
-    <t>occupancy schedule</t>
-  </si>
-  <si>
     <t>infiltration volume flow factor</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
-  </si>
-  <si>
     <t>heating setpoint</t>
   </si>
   <si>
@@ -50,10 +41,19 @@
     <t>emission source</t>
   </si>
   <si>
+    <t>eu</t>
+  </si>
+  <si>
     <t>SIA</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
+    <t>building use type</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
   </si>
 </sst>
 </file>
@@ -383,44 +383,44 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.90625" customWidth="1"/>
-    <col min="2" max="2" width="88.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="1" width="77.140625" customWidth="1"/>
+    <col min="2" max="2" width="88.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -429,17 +429,31 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/scenario_options.xlsx
+++ b/data/scenario_options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zwischenspeichern\eigenverbrauchsanteil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>weatherfile</t>
   </si>
   <si>
-    <t>occupancy schedule</t>
-  </si>
-  <si>
     <t>infiltration volume flow factor</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
-  </si>
-  <si>
     <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
   </si>
   <si>
@@ -50,10 +44,22 @@
     <t>emission source</t>
   </si>
   <si>
+    <t>eu</t>
+  </si>
+  <si>
     <t>SIA</t>
   </si>
   <si>
     <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
+  </si>
+  <si>
+    <t>building use type</t>
+  </si>
+  <si>
+    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zweisimmen-hour.epw</t>
+  </si>
+  <si>
+    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A1B.epw</t>
   </si>
 </sst>
 </file>
@@ -380,19 +386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.90625" customWidth="1"/>
+    <col min="1" max="1" width="77.08984375" customWidth="1"/>
     <col min="2" max="2" width="88.6328125" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -400,27 +406,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -429,17 +435,39 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/scenario_options.xlsx
+++ b/data/scenario_options.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>weatherfile</t>
   </si>
@@ -54,6 +54,51 @@
   </si>
   <si>
     <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
+  </si>
+  <si>
+    <t>shading factor</t>
+  </si>
+  <si>
+    <t>1 1 1 1</t>
+  </si>
+  <si>
+    <t>0.5 0.5 0.5 0.5</t>
+  </si>
+  <si>
+    <t>thermal bridge add on</t>
+  </si>
+  <si>
+    <t>heat pump efficiency</t>
+  </si>
+  <si>
+    <t>combustion efficiency factor</t>
+  </si>
+  <si>
+    <t>envelope lifetime factor</t>
+  </si>
+  <si>
+    <t>system lifetime factor</t>
+  </si>
+  <si>
+    <t>emission source UBP</t>
+  </si>
+  <si>
+    <t>KBOB</t>
+  </si>
+  <si>
+    <t>energy cost source</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>NEP_2050</t>
+  </si>
+  <si>
+    <t>POM_2050</t>
+  </si>
+  <si>
+    <t>zinssatz</t>
   </si>
 </sst>
 </file>
@@ -380,22 +425,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.140625" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,16 +453,43 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -425,17 +499,44 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>0.45</v>
+      </c>
+      <c r="I2">
+        <v>1.2</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -445,14 +546,49 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>0.45</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
